--- a/工程接口说明文档.xlsx
+++ b/工程接口说明文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="719" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="719" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="idm(用户信息管理系统)" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>项目说明：</t>
   </si>
@@ -139,7 +139,25 @@
     <t>8.启动         vehiclestate/start</t>
   </si>
   <si>
-    <t>9.熄火         fireoff</t>
+    <t>9.熄火         vehiclestate/fireoff</t>
+  </si>
+  <si>
+    <t>10.空调状态vehiclestate/airConditionState</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>11.空调启动remotecontrol/airconditionerturn</t>
+  </si>
+  <si>
+    <t>12.后背箱    remotecontrol/trunk</t>
+  </si>
+  <si>
+    <t>13.车窗        remotecontrol/window</t>
+  </si>
+  <si>
+    <t>14.天窗        remotecontrol/sunroof</t>
   </si>
   <si>
     <t>用户模块：</t>
@@ -238,8 +256,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -252,15 +270,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,14 +298,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,32 +360,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,7 +376,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,14 +399,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,30 +412,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -404,19 +422,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,163 +602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,32 +616,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,15 +632,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,11 +651,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,8 +669,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,16 +689,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -713,133 +731,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1467,8 +1485,8 @@
   <sheetPr/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1633,6 +1651,9 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
@@ -1640,32 +1661,53 @@
       <c r="C14" t="s">
         <v>39</v>
       </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1"/>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1"/>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1"/>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1"/>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1"/>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1688,14 +1730,14 @@
     <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1"/>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -1705,7 +1747,7 @@
     <row r="27" spans="1:6">
       <c r="A27" s="1"/>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -1776,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1824,14 +1866,14 @@
     <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1841,7 +1883,7 @@
     <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1851,7 +1893,7 @@
     <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1861,7 +1903,7 @@
     <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1871,7 +1913,7 @@
     <row r="9" spans="1:6">
       <c r="A9" s="1"/>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1881,7 +1923,7 @@
     <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1932,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1955,7 +1997,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1989,7 +2031,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="8"/>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2013,14 +2055,14 @@
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -2030,14 +2072,14 @@
     <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -2089,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2106,7 +2148,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2154,16 +2196,16 @@
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -2225,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2242,7 +2284,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2290,16 +2332,16 @@
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -2309,7 +2351,7 @@
     <row r="7" spans="1:6">
       <c r="A7" s="1"/>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -2319,7 +2361,7 @@
     <row r="8" spans="1:6">
       <c r="A8" s="1"/>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>

--- a/工程接口说明文档.xlsx
+++ b/工程接口说明文档.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65499\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ideaWorkSpaces\项目相关文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEEFF4C-0CAF-4B4E-AD62-F4CBECC68132}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="735" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="idm(用户信息管理系统)" sheetId="2" r:id="rId1"/>
-    <sheet name="appBackEnd(手机app后台)" sheetId="1" r:id="rId2"/>
-    <sheet name="PushMsgService(消息推送中心)" sheetId="3" r:id="rId3"/>
+    <sheet name="ACV-UA" sheetId="2" r:id="rId1"/>
+    <sheet name="ACV-NA" sheetId="3" r:id="rId2"/>
+    <sheet name="ACV-VA" sheetId="1" r:id="rId3"/>
     <sheet name="SmartSpeakerService(智能音箱后台服务)" sheetId="4" r:id="rId4"/>
     <sheet name="EmspSvc(Powershare后台服务接口)" sheetId="5" r:id="rId5"/>
     <sheet name="CarModelIOT()" sheetId="6" r:id="rId6"/>
@@ -273,7 +272,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -618,25 +617,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="64.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.4140625" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="64.08203125" customWidth="1"/>
+    <col min="4" max="4" width="17.08203125" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +652,7 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -670,7 +669,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="7" t="s">
         <v>4</v>
@@ -685,7 +684,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
@@ -703,7 +702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" t="s">
         <v>10</v>
@@ -712,7 +711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="C6" t="s">
         <v>12</v>
@@ -722,7 +721,7 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="C7" t="s">
         <v>14</v>
@@ -732,7 +731,7 @@
       </c>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="C8" t="s">
         <v>15</v>
@@ -742,7 +741,7 @@
       </c>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="C9" t="s">
         <v>16</v>
@@ -752,7 +751,7 @@
       </c>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="C10" t="s">
         <v>17</v>
@@ -762,7 +761,7 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="C11" t="s">
         <v>18</v>
@@ -772,7 +771,7 @@
       </c>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="C12" t="s">
         <v>19</v>
@@ -782,7 +781,7 @@
       </c>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="C13" t="s">
         <v>20</v>
@@ -792,18 +791,18 @@
       </c>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="C16" t="s">
         <v>22</v>
@@ -813,7 +812,7 @@
       </c>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="C17" t="s">
         <v>23</v>
@@ -823,7 +822,7 @@
       </c>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="C18" t="s">
         <v>24</v>
@@ -833,7 +832,7 @@
       </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="C19" t="s">
         <v>25</v>
@@ -843,14 +842,14 @@
       </c>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="C21" t="s">
         <v>27</v>
@@ -860,7 +859,7 @@
       </c>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="C22" t="s">
         <v>28</v>
@@ -882,10 +881,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E15 E20" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E15 E20">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16 E17 E18 E19 E21 E22 E6:E14" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16 E17 E18 E19 E21 E22 E6:E14">
       <formula1>"√,×"</formula1>
     </dataValidation>
   </dataValidations>
@@ -894,30 +893,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="A3:XFD3"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" customWidth="1"/>
-    <col min="3" max="3" width="67.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" customWidth="1"/>
-    <col min="13" max="15" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="64.75" customWidth="1"/>
+    <col min="4" max="4" width="25.25" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.58203125" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="31.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -929,12 +929,12 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -946,10 +946,10 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="7" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -961,281 +961,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A27"/>
-    <mergeCell ref="F5:F27"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E20 E25" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21 E22 E23 E24 E26 E27 E6:E12 E13:E17 E18:E19" xr:uid="{00000000-0002-0000-0100-000001000000}">
-      <formula1>"√,×"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="64.77734375" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="7" t="s">
         <v>4</v>
@@ -1250,7 +976,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
@@ -1268,14 +994,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" t="s">
         <v>72</v>
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="C7" t="s">
         <v>74</v>
@@ -1285,7 +1011,7 @@
       </c>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="C8" t="s">
         <v>75</v>
@@ -1295,7 +1021,7 @@
       </c>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="C9" t="s">
         <v>76</v>
@@ -1305,16 +1031,16 @@
       </c>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>73</v>
       </c>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>77</v>
       </c>
@@ -1323,7 +1049,7 @@
       </c>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F13" s="11"/>
     </row>
   </sheetData>
@@ -1339,10 +1065,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E13" xr:uid="{D7184A6A-6F18-46A8-AD24-31F8EC28EEB0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E13">
       <formula1>"√,×"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6" xr:uid="{3DD9E351-C80C-4148-8D4F-BE7195DE58ED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1350,30 +1076,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K10"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="57.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="40.4140625" customWidth="1"/>
+    <col min="3" max="3" width="67.08203125" customWidth="1"/>
+    <col min="4" max="4" width="15.4140625" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="30.4140625" customWidth="1"/>
+    <col min="13" max="15" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1385,10 +1112,12 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -1400,7 +1129,277 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A27"/>
+    <mergeCell ref="F5:F27"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E20 E25">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21 E22 E23 E24 E26 E27 E6:E12 E13:E17 E18:E19">
+      <formula1>"√,×"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="22.4140625" customWidth="1"/>
+    <col min="3" max="3" width="57.08203125" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="18.58203125" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="38" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -1418,14 +1417,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" t="s">
         <v>45</v>
       </c>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>46</v>
@@ -1435,7 +1434,7 @@
       </c>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="C6" t="s">
         <v>47</v>
@@ -1445,7 +1444,7 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="C7" t="s">
         <v>48</v>
@@ -1455,7 +1454,7 @@
       </c>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="C8" t="s">
         <v>49</v>
@@ -1465,7 +1464,7 @@
       </c>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="C9" t="s">
         <v>50</v>
@@ -1475,7 +1474,7 @@
       </c>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="C10" t="s">
         <v>51</v>
@@ -1495,10 +1494,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E7" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E7">
       <formula1>"√,×"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1507,23 +1506,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.4140625" customWidth="1"/>
+    <col min="2" max="2" width="30.08203125" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="24.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1546,7 +1545,7 @@
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1569,7 +1568,7 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="7" t="s">
         <v>4</v>
@@ -1588,7 +1587,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
@@ -1606,14 +1605,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" t="s">
         <v>55</v>
       </c>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="C6" t="s">
         <v>56</v>
@@ -1623,14 +1622,14 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="C8" t="s">
         <v>58</v>
@@ -1652,10 +1651,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E7" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E7">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E8" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E8">
       <formula1>"√,×"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1664,22 +1663,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" customWidth="1"/>
-    <col min="6" max="6" width="47.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="32.75" customWidth="1"/>
+    <col min="3" max="3" width="32.4140625" customWidth="1"/>
+    <col min="6" max="6" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="46.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1696,7 +1695,7 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1713,7 +1712,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="7" t="s">
         <v>4</v>
@@ -1728,7 +1727,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
@@ -1746,7 +1745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" t="s">
         <v>61</v>
@@ -1755,7 +1754,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="C6" t="s">
         <v>63</v>
@@ -1765,11 +1764,11 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="F8" s="11"/>
     </row>
@@ -1785,10 +1784,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E7" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E7">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E8" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E8">
       <formula1>"√,×"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1797,24 +1796,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.08203125" customWidth="1"/>
     <col min="3" max="3" width="31.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
-    <col min="6" max="6" width="26.77734375" customWidth="1"/>
+    <col min="5" max="5" width="20.4140625" customWidth="1"/>
+    <col min="6" max="6" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="42.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="42.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1831,7 +1830,7 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1848,7 +1847,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="7" t="s">
         <v>4</v>
@@ -1863,7 +1862,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
@@ -1881,7 +1880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" t="s">
         <v>55</v>
@@ -1890,7 +1889,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="C6" t="s">
         <v>67</v>
@@ -1900,7 +1899,7 @@
       </c>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="C7" t="s">
         <v>68</v>
@@ -1910,7 +1909,7 @@
       </c>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="C8" t="s">
         <v>69</v>
@@ -1932,10 +1931,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8">
       <formula1>"√,×"</formula1>
     </dataValidation>
   </dataValidations>

--- a/工程接口说明文档.xlsx
+++ b/工程接口说明文档.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ideaWorkSpaces\项目相关文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="735" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ACV-UA" sheetId="2" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>项目说明：</t>
   </si>
@@ -114,6 +109,33 @@
     <t>2.验证手机验证码 /verficationCode/checkVerificationCode/{phoneNum}/{vcode}</t>
   </si>
   <si>
+    <t>为App提供短信发送和通知推送接口</t>
+  </si>
+  <si>
+    <t>Mysql:   /data/mysql/idm/idm.pdm</t>
+  </si>
+  <si>
+    <t>MongoDB：/</t>
+  </si>
+  <si>
+    <t>通知推送接口：</t>
+  </si>
+  <si>
+    <t>1. 根据用户账号(手机号)推送通知给单个IOS设备 /push</t>
+  </si>
+  <si>
+    <t>1. 推送给单个app的所有IOS设备/pushAll</t>
+  </si>
+  <si>
+    <t>3. 根据用户账号(手机号)推送通知给多个IOS设备 /pushList</t>
+  </si>
+  <si>
+    <t>短信发送接口：</t>
+  </si>
+  <si>
+    <t>1.根据手机号发送短信 /send</t>
+  </si>
+  <si>
     <t>手机后台.用于车控 ,车辆信息等动能的服务端</t>
   </si>
   <si>
@@ -135,19 +157,49 @@
     <t>5.闭锁         vehiclestate/closelock</t>
   </si>
   <si>
-    <t>6.空调         vehiclestate/air_conditioner</t>
-  </si>
-  <si>
-    <t>7.闪烁鸣笛  vehiclestate/flash_horns</t>
-  </si>
-  <si>
-    <t>8.启动         vehiclestate/start</t>
+    <t>6.空调          vehiclestate/air_conditioner</t>
+  </si>
+  <si>
+    <t>7.闪烁鸣笛   vehiclestate/flash_horns</t>
+  </si>
+  <si>
+    <t>8.启动          vehiclestate/start</t>
   </si>
   <si>
     <t>9.熄火         fireoff</t>
   </si>
   <si>
-    <t>用户模块：</t>
+    <t>10.远程开关车门下发TSP 回调接口</t>
+  </si>
+  <si>
+    <t>11.远程开关天窗下发TSP 回调接口</t>
+  </si>
+  <si>
+    <t>12.远程开关车窗下发TSP 回调接口</t>
+  </si>
+  <si>
+    <t>13.远程开关空调下发TSP 回调接口</t>
+  </si>
+  <si>
+    <t>14.远程设置空调温度下发TSP 回调接口</t>
+  </si>
+  <si>
+    <t>15.远程设置空调风速下发TSP 回调接口</t>
+  </si>
+  <si>
+    <t>16.远程设置空调定时关闭下发TSP 回调接口</t>
+  </si>
+  <si>
+    <t>17.远程开启空调预热下发TSP 回调接口</t>
+  </si>
+  <si>
+    <t>18.远程控制闪灯鸣笛下发TSP 回调接口</t>
+  </si>
+  <si>
+    <t>19.远程开关后备箱下发TSP 回调接口</t>
+  </si>
+  <si>
+    <t>20.远程启动车辆下发TSP 回调接口</t>
   </si>
   <si>
     <t>消息模块：</t>
@@ -186,9 +238,6 @@
     <t>为power share提供后台服务接口,实现车况查询以及用户充电扣费等相关信息</t>
   </si>
   <si>
-    <t>Mysql:   /data/mysql/idm/idm.pdm</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
@@ -235,45 +284,19 @@
   </si>
   <si>
     <t>3. Token认证接口 /accessToken</t>
-  </si>
-  <si>
-    <t>为App提供短信发送和通知推送接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MongoDB：/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知推送接口：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信发送接口：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 根据用户账号(手机号)推送通知给单个IOS设备 /push</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 推送给单个app的所有IOS设备/pushAll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 根据用户账号(手机号)推送通知给多个IOS设备 /pushList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.根据手机号发送短信 /send</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,21 +305,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -304,16 +651,295 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -325,36 +951,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -612,262 +1270,262 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.4140625" customWidth="1"/>
+    <col min="1" max="1" width="17.4166666666667" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="64.08203125" customWidth="1"/>
-    <col min="4" max="4" width="17.08203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="64.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="11" max="11" width="17.08203125" customWidth="1"/>
+    <col min="11" max="11" width="17.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="39.5" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="7" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1"/>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1"/>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1"/>
       <c r="C13" t="s">
         <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1"/>
       <c r="C16" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1"/>
       <c r="C17" t="s">
         <v>23</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1"/>
       <c r="C18" t="s">
         <v>24</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1"/>
       <c r="C19" t="s">
         <v>25</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1"/>
       <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1"/>
       <c r="C21" t="s">
         <v>27</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1"/>
       <c r="C22" t="s">
         <v>28</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -879,7 +1537,6 @@
     <mergeCell ref="A4:A22"/>
     <mergeCell ref="F5:F22"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E15 E20">
       <formula1>"是,否"</formula1>
@@ -888,442 +1545,477 @@
       <formula1>"√,×"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="64.75" customWidth="1"/>
     <col min="4" max="4" width="25.25" customWidth="1"/>
     <col min="5" max="5" width="18.25" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" customWidth="1"/>
-    <col min="7" max="7" width="22.58203125" customWidth="1"/>
+    <col min="6" max="6" width="32.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="22.5833333333333" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="31.75" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="7" t="s">
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="6:6">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" ht="13.75" customHeight="1" spans="2:6">
       <c r="B11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="3:6">
       <c r="C12" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F13" s="11"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="6:6">
+      <c r="F13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A9"/>
     <mergeCell ref="F6:F13"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B3:K3"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E13">
       <formula1>"√,×"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="40.4140625" customWidth="1"/>
-    <col min="3" max="3" width="67.08203125" customWidth="1"/>
-    <col min="4" max="4" width="15.4140625" customWidth="1"/>
+    <col min="2" max="2" width="40.4166666666667" customWidth="1"/>
+    <col min="3" max="3" width="67.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="15.4166666666667" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="30.4140625" customWidth="1"/>
-    <col min="13" max="15" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30.4166666666667" customWidth="1"/>
+    <col min="13" max="15" width="8.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="12" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="7" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1"/>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1"/>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1"/>
       <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" ht="14.75" spans="1:6">
+      <c r="A14" s="1"/>
       <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" ht="14.75" spans="1:6">
+      <c r="A15" s="1"/>
+      <c r="C15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" ht="14.75" spans="1:6">
+      <c r="A16" s="1"/>
+      <c r="C16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" ht="14.75" spans="1:6">
+      <c r="A17" s="1"/>
+      <c r="C17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" ht="14.75" spans="1:6">
+      <c r="A18" s="1"/>
+      <c r="C18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" ht="14.75" spans="1:6">
+      <c r="A19" s="1"/>
+      <c r="C19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" ht="14.75" spans="1:6">
+      <c r="A20" s="1"/>
+      <c r="B20"/>
+      <c r="C20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" ht="14.75" spans="1:6">
+      <c r="A21" s="1"/>
+      <c r="C21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" ht="14.75" spans="1:6">
+      <c r="A22" s="1"/>
+      <c r="C22" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" ht="14.75" spans="1:6">
+      <c r="A23" s="1"/>
+      <c r="C23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" ht="14.75" spans="1:6">
+      <c r="A24" s="1"/>
+      <c r="C24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" ht="14.75" spans="1:6">
+      <c r="A25" s="1"/>
+      <c r="B25"/>
+      <c r="C25" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1"/>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1"/>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="11"/>
+      <c r="F27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1335,7 +2027,6 @@
     <mergeCell ref="A4:A27"/>
     <mergeCell ref="F5:F27"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E20 E25">
       <formula1>"是,否"</formula1>
@@ -1344,145 +2035,147 @@
       <formula1>"√,×"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="B21:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="22.4140625" customWidth="1"/>
-    <col min="3" max="3" width="57.08203125" customWidth="1"/>
+    <col min="2" max="2" width="22.4166666666667" customWidth="1"/>
+    <col min="3" max="3" width="57.0833333333333" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="18.58203125" customWidth="1"/>
+    <col min="5" max="5" width="18.5833333333333" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="38" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="38" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="7" t="s">
+      <c r="B1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1492,7 +2185,6 @@
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="F4:F10"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
       <formula1>"是,否"</formula1>
@@ -1501,143 +2193,145 @@
       <formula1>"√,×"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="22.4140625" customWidth="1"/>
-    <col min="2" max="2" width="30.08203125" customWidth="1"/>
+    <col min="1" max="1" width="22.4166666666667" customWidth="1"/>
+    <col min="2" max="2" width="30.0833333333333" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="24.9140625" customWidth="1"/>
+    <col min="6" max="6" width="24.9166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="20" customHeight="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:17">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-    </row>
-    <row r="3" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="7" t="s">
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:13">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="8"/>
       <c r="M3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+        <v>73</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1649,7 +2343,6 @@
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="F5:F8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E7">
       <formula1>"是,否"</formula1>
@@ -1658,119 +2351,121 @@
       <formula1>"√,×"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="32.75" customWidth="1"/>
-    <col min="3" max="3" width="32.4140625" customWidth="1"/>
+    <col min="3" max="3" width="32.4166666666667" customWidth="1"/>
     <col min="6" max="6" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="46" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="7" t="s">
+      <c r="B2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+        <v>79</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1782,7 +2477,6 @@
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="F5:F8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E7">
       <formula1>"是,否"</formula1>
@@ -1791,133 +2485,135 @@
       <formula1>"√,×"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.08203125" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.4140625" customWidth="1"/>
+    <col min="1" max="1" width="20.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="21.0833333333333" customWidth="1"/>
+    <col min="3" max="3" width="31.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="20.4166666666667" customWidth="1"/>
     <col min="6" max="6" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="42.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="42.5" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="7" t="s">
+      <c r="B2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+        <v>73</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1929,7 +2625,6 @@
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="F5:F8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
       <formula1>"是,否"</formula1>
@@ -1938,6 +2633,7 @@
       <formula1>"√,×"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>